--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work Docs\E-Commerce Project Guru99\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sushmitha\Magento-E-commerce-Website-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F138A-85F5-47F3-A547-736B8646ACE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6AA5BA-A73A-43E3-AEBE-09908653349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{623458BB-9245-4834-9240-71D9B0327D92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{623458BB-9245-4834-9240-71D9B0327D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,29 +41,29 @@
     <t>Verify item in Mobile List page can be sorted by 'Name'</t>
   </si>
   <si>
-    <t>1. Goto htto:,qlive.techoanda.ora/ 
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>Test steps</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>1. Text 'THIS IS DEMO SITE FOR   ' shown in home page
+2. Title 'MOBILE' is shown on mobile list page.
+3.  All 3 products sorted by name</t>
+  </si>
+  <si>
+    <t>1. Goto http://live.techoanda.org/ 
 2. Verify Title of the page
 3. Click on 'MOBILE' menu
 4. Verify Title of the page 
 5. In the list of all mobile , select 'SORT BY' dropdown as 'name'
 6. Verify all productssorted by name</t>
-  </si>
-  <si>
-    <t>1. Text 'THIS IS DEMO SITE' shown in home page
-2. Title 'MOBILE' is shown on mobile list page.
-3.  All 3 products sorted by name</t>
-  </si>
-  <si>
-    <t>Test cases</t>
-  </si>
-  <si>
-    <t>Test steps</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
   </si>
 </sst>
 </file>
@@ -424,34 +424,34 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.7109375" style="1"/>
     <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -459,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sushmitha\Magento-E-commerce-Website-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6AA5BA-A73A-43E3-AEBE-09908653349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3497B5-48E2-4394-ACB0-98B16AE12555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{623458BB-9245-4834-9240-71D9B0327D92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Verify item in Mobile List page can be sorted by 'Name'</t>
   </si>
@@ -64,6 +64,20 @@
 4. Verify Title of the page 
 5. In the list of all mobile , select 'SORT BY' dropdown as 'name'
 6. Verify all productssorted by name</t>
+  </si>
+  <si>
+    <t>Verify that cost of product in list page and details page are equal</t>
+  </si>
+  <si>
+    <t>1) Product Value in list and details page should be equal ($IOO)</t>
+  </si>
+  <si>
+    <t>1.Goto http://live.techpanda.org/
+2. Click on 'MOBILE' menu
+3. In the list of all mobile , read the cost of Sony Xperia mobile). Note this value 
+4.Click on Sony Xperia mobile 
+5. Read the Sony Xperia mobile from detail page.
+6. Compare value in Step 3 &amp; Step 5</t>
   </si>
 </sst>
 </file>
@@ -421,19 +435,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55CBE53-C99B-4700-908D-B54CD309EFAA}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="1"/>
-    <col min="2" max="2" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="116.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -451,7 +465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -463,6 +477,20 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sushmitha\Magento-E-commerce-Website-automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work Docs\E-Commerce Project Guru99\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3497B5-48E2-4394-ACB0-98B16AE12555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D417000-7E71-43FF-AF39-9B31F50DF25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{623458BB-9245-4834-9240-71D9B0327D92}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{623458BB-9245-4834-9240-71D9B0327D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Verify item in Mobile List page can be sorted by 'Name'</t>
   </si>
@@ -78,6 +78,22 @@
 4.Click on Sony Xperia mobile 
 5. Read the Sony Xperia mobile from detail page.
 6. Compare value in Step 3 &amp; Step 5</t>
+  </si>
+  <si>
+    <t>1.Goto http://live.techpanda.org/
+2. Click on 'MOBILE' menu
+3. In the list of all mobile , click on 'ADD TO CART' for Sony Xperia mobile 
+4. Change 'QTY' value to 1000 and click 'UPDATE' button. 
+5. Verify the error message 
+6. Then click on 'EMPTY CART' link in the footer of list of all mobiles. 
+7. Verify cart is empty</t>
+  </si>
+  <si>
+    <t>1. On clicking update button an error is shown 'The requested quantity for Sony Xperia" is not available.'
+2. On clicking empty cart button - a message 'SHOPPING CART IS EMPTY' is shown</t>
+  </si>
+  <si>
+    <t>Verify that you cannot add more product in cart than the product available in store</t>
   </si>
 </sst>
 </file>
@@ -435,23 +451,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55CBE53-C99B-4700-908D-B54CD309EFAA}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="116.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="1.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -465,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -479,7 +495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -491,6 +507,20 @@
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work Docs\E-Commerce Project Guru99\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sushmitha\Magento-E-commerce-Website-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D417000-7E71-43FF-AF39-9B31F50DF25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CF9B2D-DFF8-4E07-83D7-8A3B1FE3027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{623458BB-9245-4834-9240-71D9B0327D92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{623458BB-9245-4834-9240-71D9B0327D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Verify item in Mobile List page can be sorted by 'Name'</t>
   </si>
@@ -94,6 +94,25 @@
   </si>
   <si>
     <t>Verify that you cannot add more product in cart than the product available in store</t>
+  </si>
+  <si>
+    <t>Verify that you are able to compare two product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.A Popup window opens with headind as 'COMPARE PRODUCTS' and the selected products are present in it. 
+2. Popup window is closed </t>
+  </si>
+  <si>
+    <t>Phone 1 Sony Xperia
+Phone 2 IPHONE</t>
+  </si>
+  <si>
+    <t>1. Goto http://live.techpanda.org/ 
+2.Click on 'MOBILE' menu 
+3.In mobile products list , click on 'Add To Compare' for 2 mobiles
+ 4 Click on 'COMPARE' button.
+5. Verify the pop-up window and check that the products are reflected in it 
+6 Close the Popup Windows</t>
   </si>
 </sst>
 </file>
@@ -129,13 +148,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,23 +476,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55CBE53-C99B-4700-908D-B54CD309EFAA}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -481,49 +506,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testcases.xlsx
+++ b/Testcases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sushmitha\Magento-E-commerce-Website-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CF9B2D-DFF8-4E07-83D7-8A3B1FE3027A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D288D7-F232-4B53-BCF2-E0F20B4E615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{623458BB-9245-4834-9240-71D9B0327D92}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="705" windowWidth="21600" windowHeight="11295" xr2:uid="{623458BB-9245-4834-9240-71D9B0327D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Verify item in Mobile List page can be sorted by 'Name'</t>
   </si>
@@ -70,14 +70,6 @@
   </si>
   <si>
     <t>1) Product Value in list and details page should be equal ($IOO)</t>
-  </si>
-  <si>
-    <t>1.Goto http://live.techpanda.org/
-2. Click on 'MOBILE' menu
-3. In the list of all mobile , read the cost of Sony Xperia mobile). Note this value 
-4.Click on Sony Xperia mobile 
-5. Read the Sony Xperia mobile from detail page.
-6. Compare value in Step 3 &amp; Step 5</t>
   </si>
   <si>
     <t>1.Goto http://live.techpanda.org/
@@ -114,13 +106,130 @@
 5. Verify the pop-up window and check that the products are reflected in it 
 6 Close the Popup Windows</t>
   </si>
+  <si>
+    <t>1.Goto http://live.techpanda.org/
+2. Click on 'MOBILE' menu
+3. In the list of all mobile , read the cost of Sony Xperia mobile. Note this value 
+4.Click on Sony Xperia mobile 
+5. Read the Sony Xperia mobile from detail page.
+6. Compare value in Step 3 &amp; Step 5</t>
+  </si>
+  <si>
+    <t>Verify you can create account in E-commerce site and can share wishlist to other people using email</t>
+  </si>
+  <si>
+    <t>product = LG LCD</t>
+  </si>
+  <si>
+    <t>1.Goto http://live.techpanda.org/ 
+2.Click on my account link
+ 3.Click Create Account link and fill New User information except Email ID
+ 4.Click Register
+ 5. Verify Registration is done 
+6.Go to TV menu 
+7.Add product in your wish list 
+8.Click SHARE WISHLIST 
+9.1n next page enter Email and a message and click SHARE WISHLIST 
+10. Check wishlist is shared</t>
+  </si>
+  <si>
+    <t>1. Account Registration done 
+2. Wishlist Shared Successfully</t>
+  </si>
+  <si>
+    <t>Verify user is able to purchase Continue product using registered email id(USE CHROME BROWSER)</t>
+  </si>
+  <si>
+    <t>1 Go to http://live.techpanda.org/ 
+2.Click on my account link 
+3.Login in application using previously created credential 
+4.Click on MY WISHLIST link 
+5.1n next page, Click ADD TO CART link
+ 6.Click PROCEED TO CHECKOUT
+ 7. Enter Shipping Information
+ 8. Click Estimate 
+9.Verify Shipping cost generated
+10. Select Shipping Cost, Update Total 
+11. Verify shipping cost is added to total 
+12Click "Proceed to Checkout
+13. Enter Billing Information 
+14. In Shipping Method, Click Continue 
+15.1n Payment Information select 'Check/Money Order' radio button.Click 
+16.C1ick 'PLACE ORDER' button
+17. Verify Oder is generated. Note the order number</t>
+  </si>
+  <si>
+    <t>User credentials created in test case 05
+ Shipping Information Country United States 
+State = New York
+ Zip = 542896
+ Address ABC 
+City = New York 
+Telephone = 12345678</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Flat Rate Shipping of $5 is generated 
+2. Shipping cost is added to total product cost
+3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Oder is placed. Order number is generated</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify that you will be able to save previously placed order as a pdf file</t>
+  </si>
+  <si>
+    <t>Use FireFox</t>
+  </si>
+  <si>
+    <t>1.Go to http://live.techpanda.org/ 
+2.Click on My Account link 
+3.Login in application using previously created credential 
+4.Click on 'My Orders' 
+5.Click on 'View Order 
+6.Verify the previously created order is displayed in 'RECENT ORDERS' table and status is Pending 
+7.Click on 'Print Order link 
+8. Verify Order is saved as PDF</t>
+  </si>
+  <si>
+    <t>Previously created order is displayed in 'RECENT ORDERS' table and status is Pending. 2
+.Order is saved as PDF.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -148,13 +257,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -476,93 +582,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55CBE53-C99B-4700-908D-B54CD309EFAA}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="88.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="97.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
+    </row>
+    <row r="6" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="285" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
